--- a/ordersSheet.xlsx
+++ b/ordersSheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="36">
   <si>
     <t>L.R. No.</t>
   </si>
@@ -112,6 +112,18 @@
   </si>
   <si>
     <t>LR10</t>
+  </si>
+  <si>
+    <t>LR11</t>
+  </si>
+  <si>
+    <t>sourabh</t>
+  </si>
+  <si>
+    <t>cxc</t>
+  </si>
+  <si>
+    <t>goods</t>
   </si>
 </sst>
 </file>
@@ -451,10 +463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -753,6 +765,32 @@
         <v>13</v>
       </c>
       <c r="H11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="1">
+        <v>43291</v>
+      </c>
+      <c r="C12">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12">
+        <v>1000</v>
+      </c>
+      <c r="G12" t="s">
+        <v>35</v>
+      </c>
+      <c r="H12" t="s">
         <v>18</v>
       </c>
     </row>
